--- a/emu_result_process/data/新建 XLSX 工作表.xlsx
+++ b/emu_result_process/data/新建 XLSX 工作表.xlsx
@@ -1065,8 +1065,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1528" sqref="Q1528"/>
+    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
+      <selection activeCell="AA589" sqref="AA589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1139,7 +1139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" hidden="1" spans="1:22">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" hidden="1" spans="1:22">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" hidden="1" spans="1:22">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" hidden="1" spans="1:22">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" hidden="1" spans="1:22">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" hidden="1" spans="1:22">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" hidden="1" spans="1:22">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" hidden="1" spans="1:22">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" hidden="1" spans="1:22">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" hidden="1" spans="1:22">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" hidden="1" spans="1:22">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" hidden="1" spans="1:22">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:22">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:22">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:22">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:22">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:22">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:22">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:22">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:22">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:22">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:22">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:22">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:22">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:22">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:22">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:22">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:22">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:22">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:22">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:22">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:22">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:22">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:22">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:22">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:22">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:22">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:22">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:22">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:22">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:22">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:22">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:22">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:22">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:22">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:22">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:22">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:22">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:22">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:22">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:22">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:22">
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:22">
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:22">
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:22">
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:22">
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:22">
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:22">
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:22">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:22">
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:22">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:22">
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:22">
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:22">
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:22">
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:22">
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:22">
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:22">
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:22">
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:22">
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:22">
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:22">
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:22">
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:22">
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:22">
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:22">
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:22">
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:22">
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:22">
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:22">
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:22">
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:22">
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:22">
+    <row r="84" spans="1:22">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:22">
+    <row r="85" spans="1:22">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:22">
+    <row r="86" spans="1:22">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:22">
+    <row r="87" spans="1:22">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:22">
+    <row r="88" spans="1:22">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:22">
+    <row r="89" spans="1:22">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:22">
+    <row r="90" spans="1:22">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:22">
+    <row r="91" spans="1:22">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:22">
+    <row r="92" spans="1:22">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:22">
+    <row r="93" spans="1:22">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:22">
+    <row r="94" spans="1:22">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:22">
+    <row r="95" spans="1:22">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:22">
+    <row r="96" spans="1:22">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:22">
+    <row r="97" spans="1:22">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:22">
+    <row r="98" spans="1:22">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:22">
+    <row r="99" spans="1:22">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:22">
+    <row r="100" spans="1:22">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:22">
+    <row r="101" spans="1:22">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:22">
+    <row r="102" spans="1:22">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:22">
+    <row r="103" spans="1:22">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:22">
+    <row r="104" spans="1:22">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:22">
+    <row r="105" spans="1:22">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:22">
+    <row r="106" spans="1:22">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:22">
+    <row r="107" spans="1:22">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:22">
+    <row r="108" spans="1:22">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:22">
+    <row r="109" spans="1:22">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:22">
+    <row r="110" spans="1:22">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:22">
+    <row r="111" spans="1:22">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:22">
+    <row r="112" spans="1:22">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:22">
+    <row r="113" spans="1:22">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:22">
+    <row r="114" spans="1:22">
       <c r="A114" t="s">
         <v>24</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:22">
+    <row r="115" spans="1:22">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:22">
+    <row r="116" spans="1:22">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:22">
+    <row r="117" spans="1:22">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:22">
+    <row r="118" spans="1:22">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:22">
+    <row r="119" spans="1:22">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:22">
+    <row r="120" spans="1:22">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:22">
+    <row r="121" spans="1:22">
       <c r="A121" t="s">
         <v>24</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:22">
+    <row r="122" spans="1:22">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:22">
+    <row r="123" spans="1:22">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:22">
+    <row r="124" spans="1:22">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:22">
+    <row r="125" spans="1:22">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:22">
+    <row r="126" spans="1:22">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:22">
+    <row r="127" spans="1:22">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:22">
+    <row r="128" spans="1:22">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:22">
+    <row r="129" spans="1:22">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:22">
+    <row r="130" spans="1:22">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:22">
+    <row r="131" spans="1:22">
       <c r="A131" t="s">
         <v>24</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:22">
+    <row r="132" spans="1:22">
       <c r="A132" t="s">
         <v>24</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:22">
+    <row r="133" spans="1:22">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:22">
+    <row r="134" spans="1:22">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:22">
+    <row r="135" spans="1:22">
       <c r="A135" t="s">
         <v>24</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:22">
+    <row r="136" spans="1:22">
       <c r="A136" t="s">
         <v>24</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:22">
+    <row r="137" spans="1:22">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:22">
+    <row r="138" spans="1:22">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:22">
+    <row r="139" spans="1:22">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:22">
+    <row r="140" spans="1:22">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:22">
+    <row r="141" spans="1:22">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:22">
+    <row r="142" spans="1:22">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:22">
+    <row r="143" spans="1:22">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:22">
+    <row r="144" spans="1:22">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:22">
+    <row r="145" spans="1:22">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:22">
+    <row r="146" spans="1:22">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:22">
+    <row r="147" spans="1:22">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:22">
+    <row r="148" spans="1:22">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:22">
+    <row r="149" spans="1:22">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:22">
+    <row r="150" spans="1:22">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:22">
+    <row r="151" spans="1:22">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:22">
+    <row r="152" spans="1:22">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:22">
+    <row r="153" spans="1:22">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:22">
+    <row r="154" spans="1:22">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:22">
+    <row r="155" spans="1:22">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:22">
+    <row r="156" spans="1:22">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:22">
+    <row r="157" spans="1:22">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:22">
+    <row r="158" spans="1:22">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:22">
+    <row r="159" spans="1:22">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:22">
+    <row r="160" spans="1:22">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:22">
+    <row r="161" spans="1:22">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:22">
+    <row r="162" spans="1:22">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:22">
+    <row r="163" spans="1:22">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:22">
+    <row r="164" spans="1:22">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:22">
+    <row r="165" spans="1:22">
       <c r="A165" t="s">
         <v>24</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:22">
+    <row r="166" spans="1:22">
       <c r="A166" t="s">
         <v>24</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:22">
+    <row r="167" spans="1:22">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:22">
+    <row r="168" spans="1:22">
       <c r="A168" t="s">
         <v>24</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:22">
+    <row r="169" spans="1:22">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:22">
+    <row r="170" spans="1:22">
       <c r="A170" t="s">
         <v>24</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:22">
+    <row r="171" spans="1:22">
       <c r="A171" t="s">
         <v>24</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:22">
+    <row r="172" spans="1:22">
       <c r="A172" t="s">
         <v>24</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:22">
+    <row r="173" spans="1:22">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:22">
+    <row r="174" spans="1:22">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:22">
+    <row r="175" spans="1:22">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:22">
+    <row r="176" spans="1:22">
       <c r="A176" t="s">
         <v>24</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:22">
+    <row r="177" spans="1:22">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:22">
+    <row r="178" spans="1:22">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:22">
+    <row r="179" spans="1:22">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:22">
+    <row r="180" spans="1:22">
       <c r="A180" t="s">
         <v>24</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:22">
+    <row r="181" spans="1:22">
       <c r="A181" t="s">
         <v>24</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:22">
+    <row r="182" spans="1:22">
       <c r="A182" t="s">
         <v>24</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:22">
+    <row r="183" spans="1:22">
       <c r="A183" t="s">
         <v>24</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:22">
+    <row r="184" spans="1:22">
       <c r="A184" t="s">
         <v>24</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:22">
+    <row r="185" spans="1:22">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:22">
+    <row r="186" spans="1:22">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:22">
+    <row r="187" spans="1:22">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:22">
+    <row r="188" spans="1:22">
       <c r="A188" t="s">
         <v>24</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:22">
+    <row r="189" spans="1:22">
       <c r="A189" t="s">
         <v>24</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:22">
+    <row r="190" spans="1:22">
       <c r="A190" t="s">
         <v>24</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:22">
+    <row r="191" spans="1:22">
       <c r="A191" t="s">
         <v>24</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:22">
+    <row r="192" spans="1:22">
       <c r="A192" t="s">
         <v>24</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:22">
+    <row r="193" spans="1:22">
       <c r="A193" t="s">
         <v>24</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:22">
+    <row r="194" spans="1:22">
       <c r="A194" t="s">
         <v>24</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:22">
+    <row r="195" spans="1:22">
       <c r="A195" t="s">
         <v>24</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:22">
+    <row r="196" spans="1:22">
       <c r="A196" t="s">
         <v>24</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:22">
+    <row r="197" spans="1:22">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:22">
+    <row r="198" spans="1:22">
       <c r="A198" t="s">
         <v>24</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:22">
+    <row r="199" spans="1:22">
       <c r="A199" t="s">
         <v>24</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:22">
+    <row r="200" spans="1:22">
       <c r="A200" t="s">
         <v>24</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:22">
+    <row r="201" spans="1:22">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:22">
+    <row r="202" spans="1:22">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:22">
+    <row r="203" spans="1:22">
       <c r="A203" t="s">
         <v>24</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:22">
+    <row r="204" spans="1:22">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:22">
+    <row r="205" spans="1:22">
       <c r="A205" t="s">
         <v>24</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:22">
+    <row r="206" spans="1:22">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:22">
+    <row r="207" spans="1:22">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:22">
+    <row r="208" spans="1:22">
       <c r="A208" t="s">
         <v>24</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:22">
+    <row r="209" spans="1:22">
       <c r="A209" t="s">
         <v>24</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:22">
+    <row r="210" spans="1:22">
       <c r="A210" t="s">
         <v>24</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:22">
+    <row r="211" spans="1:22">
       <c r="A211" t="s">
         <v>24</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:22">
+    <row r="212" spans="1:22">
       <c r="A212" t="s">
         <v>24</v>
       </c>
@@ -15487,7 +15487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:22">
+    <row r="213" spans="1:22">
       <c r="A213" t="s">
         <v>24</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:22">
+    <row r="214" spans="1:22">
       <c r="A214" t="s">
         <v>24</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:22">
+    <row r="215" spans="1:22">
       <c r="A215" t="s">
         <v>24</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:22">
+    <row r="216" spans="1:22">
       <c r="A216" t="s">
         <v>24</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:22">
+    <row r="217" spans="1:22">
       <c r="A217" t="s">
         <v>24</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:22">
+    <row r="218" spans="1:22">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:22">
+    <row r="219" spans="1:22">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:22">
+    <row r="220" spans="1:22">
       <c r="A220" t="s">
         <v>24</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:22">
+    <row r="221" spans="1:22">
       <c r="A221" t="s">
         <v>24</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:22">
+    <row r="222" spans="1:22">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:22">
+    <row r="223" spans="1:22">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:22">
+    <row r="224" spans="1:22">
       <c r="A224" t="s">
         <v>24</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:22">
+    <row r="225" spans="1:22">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:22">
+    <row r="226" spans="1:22">
       <c r="A226" t="s">
         <v>24</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:22">
+    <row r="227" spans="1:22">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:22">
+    <row r="228" spans="1:22">
       <c r="A228" t="s">
         <v>24</v>
       </c>
@@ -16575,7 +16575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:22">
+    <row r="229" spans="1:22">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:22">
+    <row r="230" spans="1:22">
       <c r="A230" t="s">
         <v>24</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:22">
+    <row r="231" spans="1:22">
       <c r="A231" t="s">
         <v>24</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:22">
+    <row r="232" spans="1:22">
       <c r="A232" t="s">
         <v>24</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:22">
+    <row r="233" spans="1:22">
       <c r="A233" t="s">
         <v>24</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:22">
+    <row r="234" spans="1:22">
       <c r="A234" t="s">
         <v>24</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:22">
+    <row r="235" spans="1:22">
       <c r="A235" t="s">
         <v>24</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:22">
+    <row r="236" spans="1:22">
       <c r="A236" t="s">
         <v>24</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:22">
+    <row r="237" spans="1:22">
       <c r="A237" t="s">
         <v>24</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:22">
+    <row r="238" spans="1:22">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:22">
+    <row r="239" spans="1:22">
       <c r="A239" t="s">
         <v>24</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:22">
+    <row r="240" spans="1:22">
       <c r="A240" t="s">
         <v>24</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:22">
+    <row r="241" spans="1:22">
       <c r="A241" t="s">
         <v>24</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:22">
+    <row r="242" spans="1:22">
       <c r="A242" t="s">
         <v>24</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:22">
+    <row r="243" spans="1:22">
       <c r="A243" t="s">
         <v>24</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:22">
+    <row r="244" spans="1:22">
       <c r="A244" t="s">
         <v>24</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:22">
+    <row r="245" spans="1:22">
       <c r="A245" t="s">
         <v>24</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:22">
+    <row r="246" spans="1:22">
       <c r="A246" t="s">
         <v>24</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:22">
+    <row r="247" spans="1:22">
       <c r="A247" t="s">
         <v>24</v>
       </c>
@@ -17867,7 +17867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:22">
+    <row r="248" spans="1:22">
       <c r="A248" t="s">
         <v>24</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:22">
+    <row r="249" spans="1:22">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:22">
+    <row r="250" spans="1:22">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:22">
+    <row r="251" spans="1:22">
       <c r="A251" t="s">
         <v>24</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:22">
+    <row r="252" spans="1:22">
       <c r="A252" t="s">
         <v>24</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:22">
+    <row r="253" spans="1:22">
       <c r="A253" t="s">
         <v>24</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:22">
+    <row r="254" spans="1:22">
       <c r="A254" t="s">
         <v>24</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:22">
+    <row r="255" spans="1:22">
       <c r="A255" t="s">
         <v>24</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:22">
+    <row r="256" spans="1:22">
       <c r="A256" t="s">
         <v>24</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:22">
+    <row r="257" spans="1:22">
       <c r="A257" t="s">
         <v>24</v>
       </c>
@@ -18547,7 +18547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:22">
+    <row r="258" spans="1:22">
       <c r="A258" t="s">
         <v>24</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:22">
+    <row r="259" spans="1:22">
       <c r="A259" t="s">
         <v>24</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:22">
+    <row r="260" spans="1:22">
       <c r="A260" t="s">
         <v>24</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:22">
+    <row r="261" spans="1:22">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:22">
+    <row r="262" spans="1:22">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:22">
+    <row r="263" spans="1:22">
       <c r="A263" t="s">
         <v>24</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:22">
+    <row r="264" spans="1:22">
       <c r="A264" t="s">
         <v>24</v>
       </c>
@@ -19023,7 +19023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:22">
+    <row r="265" spans="1:22">
       <c r="A265" t="s">
         <v>24</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:22">
+    <row r="266" spans="1:22">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:22">
+    <row r="267" spans="1:22">
       <c r="A267" t="s">
         <v>24</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:22">
+    <row r="268" spans="1:22">
       <c r="A268" t="s">
         <v>24</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:22">
+    <row r="269" spans="1:22">
       <c r="A269" t="s">
         <v>24</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:22">
+    <row r="270" spans="1:22">
       <c r="A270" t="s">
         <v>24</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:22">
+    <row r="271" spans="1:22">
       <c r="A271" t="s">
         <v>24</v>
       </c>
@@ -19499,7 +19499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:22">
+    <row r="272" spans="1:22">
       <c r="A272" t="s">
         <v>24</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:22">
+    <row r="273" spans="1:22">
       <c r="A273" t="s">
         <v>24</v>
       </c>
@@ -19635,7 +19635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:22">
+    <row r="274" spans="1:22">
       <c r="A274" t="s">
         <v>24</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:22">
+    <row r="275" spans="1:22">
       <c r="A275" t="s">
         <v>24</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:22">
+    <row r="276" spans="1:22">
       <c r="A276" t="s">
         <v>24</v>
       </c>
@@ -19839,7 +19839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:22">
+    <row r="277" spans="1:22">
       <c r="A277" t="s">
         <v>24</v>
       </c>
@@ -19907,7 +19907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:22">
+    <row r="278" spans="1:22">
       <c r="A278" t="s">
         <v>24</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:22">
+    <row r="279" spans="1:22">
       <c r="A279" t="s">
         <v>24</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:22">
+    <row r="280" spans="1:22">
       <c r="A280" t="s">
         <v>24</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:22">
+    <row r="281" spans="1:22">
       <c r="A281" t="s">
         <v>24</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:22">
+    <row r="282" spans="1:22">
       <c r="A282" t="s">
         <v>24</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:22">
+    <row r="283" spans="1:22">
       <c r="A283" t="s">
         <v>24</v>
       </c>
@@ -20315,7 +20315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:22">
+    <row r="284" spans="1:22">
       <c r="A284" t="s">
         <v>24</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:22">
+    <row r="285" spans="1:22">
       <c r="A285" t="s">
         <v>24</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:22">
+    <row r="286" spans="1:22">
       <c r="A286" t="s">
         <v>24</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:22">
+    <row r="287" spans="1:22">
       <c r="A287" t="s">
         <v>24</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:22">
+    <row r="288" spans="1:22">
       <c r="A288" t="s">
         <v>24</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="1:22">
+    <row r="289" spans="1:22">
       <c r="A289" t="s">
         <v>24</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:22">
+    <row r="290" spans="1:22">
       <c r="A290" t="s">
         <v>24</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:22">
+    <row r="291" spans="1:22">
       <c r="A291" t="s">
         <v>24</v>
       </c>
@@ -20859,7 +20859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:22">
+    <row r="292" spans="1:22">
       <c r="A292" t="s">
         <v>24</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:22">
+    <row r="293" spans="1:22">
       <c r="A293" t="s">
         <v>24</v>
       </c>
@@ -20995,7 +20995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:22">
+    <row r="294" spans="1:22">
       <c r="A294" t="s">
         <v>24</v>
       </c>
@@ -21063,7 +21063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:22">
+    <row r="295" spans="1:22">
       <c r="A295" t="s">
         <v>24</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:22">
+    <row r="296" spans="1:22">
       <c r="A296" t="s">
         <v>24</v>
       </c>
@@ -21199,7 +21199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:22">
+    <row r="297" spans="1:22">
       <c r="A297" t="s">
         <v>24</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:22">
+    <row r="298" spans="1:22">
       <c r="A298" t="s">
         <v>24</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:22">
+    <row r="299" spans="1:22">
       <c r="A299" t="s">
         <v>24</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:22">
+    <row r="300" spans="1:22">
       <c r="A300" t="s">
         <v>24</v>
       </c>
@@ -21471,7 +21471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:22">
+    <row r="301" spans="1:22">
       <c r="A301" t="s">
         <v>24</v>
       </c>
@@ -21539,7 +21539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:22">
+    <row r="302" spans="1:22">
       <c r="A302" t="s">
         <v>24</v>
       </c>
@@ -21607,7 +21607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:22">
+    <row r="303" spans="1:22">
       <c r="A303" t="s">
         <v>24</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:22">
+    <row r="304" spans="1:22">
       <c r="A304" t="s">
         <v>24</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:22">
+    <row r="305" spans="1:22">
       <c r="A305" t="s">
         <v>24</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:22">
+    <row r="306" spans="1:22">
       <c r="A306" t="s">
         <v>24</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:22">
+    <row r="307" spans="1:22">
       <c r="A307" t="s">
         <v>24</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:22">
+    <row r="308" spans="1:22">
       <c r="A308" t="s">
         <v>24</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:22">
+    <row r="309" spans="1:22">
       <c r="A309" t="s">
         <v>24</v>
       </c>
@@ -22083,7 +22083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:22">
+    <row r="310" spans="1:22">
       <c r="A310" t="s">
         <v>24</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:22">
+    <row r="311" spans="1:22">
       <c r="A311" t="s">
         <v>24</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:22">
+    <row r="312" spans="1:22">
       <c r="A312" t="s">
         <v>24</v>
       </c>
@@ -22287,7 +22287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:22">
+    <row r="313" spans="1:22">
       <c r="A313" t="s">
         <v>24</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:22">
+    <row r="314" spans="1:22">
       <c r="A314" t="s">
         <v>24</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:22">
+    <row r="315" spans="1:22">
       <c r="A315" t="s">
         <v>24</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="1:22">
+    <row r="316" spans="1:22">
       <c r="A316" t="s">
         <v>24</v>
       </c>
@@ -22559,7 +22559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:22">
+    <row r="317" spans="1:22">
       <c r="A317" t="s">
         <v>24</v>
       </c>
@@ -22627,7 +22627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:22">
+    <row r="318" spans="1:22">
       <c r="A318" t="s">
         <v>24</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:22">
+    <row r="319" spans="1:22">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -22763,7 +22763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:22">
+    <row r="320" spans="1:22">
       <c r="A320" t="s">
         <v>24</v>
       </c>
@@ -22831,7 +22831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:22">
+    <row r="321" spans="1:22">
       <c r="A321" t="s">
         <v>24</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:22">
+    <row r="322" spans="1:22">
       <c r="A322" t="s">
         <v>24</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:22">
+    <row r="323" spans="1:22">
       <c r="A323" t="s">
         <v>24</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:22">
+    <row r="324" spans="1:22">
       <c r="A324" t="s">
         <v>24</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:22">
+    <row r="325" spans="1:22">
       <c r="A325" t="s">
         <v>24</v>
       </c>
@@ -23171,7 +23171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:22">
+    <row r="326" spans="1:22">
       <c r="A326" t="s">
         <v>24</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:22">
+    <row r="327" spans="1:22">
       <c r="A327" t="s">
         <v>24</v>
       </c>
@@ -23307,7 +23307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:22">
+    <row r="328" spans="1:22">
       <c r="A328" t="s">
         <v>24</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:22">
+    <row r="329" spans="1:22">
       <c r="A329" t="s">
         <v>24</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:22">
+    <row r="330" spans="1:22">
       <c r="A330" t="s">
         <v>24</v>
       </c>
@@ -23511,7 +23511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:22">
+    <row r="331" spans="1:22">
       <c r="A331" t="s">
         <v>24</v>
       </c>
@@ -23579,7 +23579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:22">
+    <row r="332" spans="1:22">
       <c r="A332" t="s">
         <v>24</v>
       </c>
@@ -23647,7 +23647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:22">
+    <row r="333" spans="1:22">
       <c r="A333" t="s">
         <v>24</v>
       </c>
@@ -23715,7 +23715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:22">
+    <row r="334" spans="1:22">
       <c r="A334" t="s">
         <v>24</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:22">
+    <row r="335" spans="1:22">
       <c r="A335" t="s">
         <v>24</v>
       </c>
@@ -23851,7 +23851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:22">
+    <row r="336" spans="1:22">
       <c r="A336" t="s">
         <v>24</v>
       </c>
@@ -23919,7 +23919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:22">
+    <row r="337" spans="1:22">
       <c r="A337" t="s">
         <v>24</v>
       </c>
@@ -23987,7 +23987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:22">
+    <row r="338" spans="1:22">
       <c r="A338" t="s">
         <v>24</v>
       </c>
@@ -24055,7 +24055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:22">
+    <row r="339" spans="1:22">
       <c r="A339" t="s">
         <v>24</v>
       </c>
@@ -24123,7 +24123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:22">
+    <row r="340" spans="1:22">
       <c r="A340" t="s">
         <v>24</v>
       </c>
@@ -24191,7 +24191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:22">
+    <row r="341" spans="1:22">
       <c r="A341" t="s">
         <v>24</v>
       </c>
@@ -24259,7 +24259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:22">
+    <row r="342" spans="1:22">
       <c r="A342" t="s">
         <v>24</v>
       </c>
@@ -24327,7 +24327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:22">
+    <row r="343" spans="1:22">
       <c r="A343" t="s">
         <v>24</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:22">
+    <row r="344" spans="1:22">
       <c r="A344" t="s">
         <v>24</v>
       </c>
@@ -24463,7 +24463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="1:22">
+    <row r="345" spans="1:22">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:22">
+    <row r="346" spans="1:22">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -24599,7 +24599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:22">
+    <row r="347" spans="1:22">
       <c r="A347" t="s">
         <v>24</v>
       </c>
@@ -24667,7 +24667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:22">
+    <row r="348" spans="1:22">
       <c r="A348" t="s">
         <v>24</v>
       </c>
@@ -24735,7 +24735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="1:22">
+    <row r="349" spans="1:22">
       <c r="A349" t="s">
         <v>24</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:22">
+    <row r="350" spans="1:22">
       <c r="A350" t="s">
         <v>24</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="1:22">
+    <row r="351" spans="1:22">
       <c r="A351" t="s">
         <v>24</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:22">
+    <row r="352" spans="1:22">
       <c r="A352" t="s">
         <v>24</v>
       </c>
@@ -25007,7 +25007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:22">
+    <row r="353" spans="1:22">
       <c r="A353" t="s">
         <v>24</v>
       </c>
@@ -25075,7 +25075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:22">
+    <row r="354" spans="1:22">
       <c r="A354" t="s">
         <v>24</v>
       </c>
@@ -25143,7 +25143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:22">
+    <row r="355" spans="1:22">
       <c r="A355" t="s">
         <v>24</v>
       </c>
@@ -25211,7 +25211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="1:22">
+    <row r="356" spans="1:22">
       <c r="A356" t="s">
         <v>24</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:22">
+    <row r="357" spans="1:22">
       <c r="A357" t="s">
         <v>24</v>
       </c>
@@ -25347,7 +25347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="1:22">
+    <row r="358" spans="1:22">
       <c r="A358" t="s">
         <v>24</v>
       </c>
@@ -25415,7 +25415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:22">
+    <row r="359" spans="1:22">
       <c r="A359" t="s">
         <v>24</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="1:22">
+    <row r="360" spans="1:22">
       <c r="A360" t="s">
         <v>24</v>
       </c>
@@ -25551,7 +25551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:22">
+    <row r="361" spans="1:22">
       <c r="A361" t="s">
         <v>24</v>
       </c>
@@ -25619,7 +25619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="1:22">
+    <row r="362" spans="1:22">
       <c r="A362" t="s">
         <v>24</v>
       </c>
@@ -25687,7 +25687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:22">
+    <row r="363" spans="1:22">
       <c r="A363" t="s">
         <v>24</v>
       </c>
@@ -25755,7 +25755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:22">
+    <row r="364" spans="1:22">
       <c r="A364" t="s">
         <v>24</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="1:22">
+    <row r="365" spans="1:22">
       <c r="A365" t="s">
         <v>24</v>
       </c>
@@ -25891,7 +25891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:22">
+    <row r="366" spans="1:22">
       <c r="A366" t="s">
         <v>24</v>
       </c>
@@ -25959,7 +25959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:22">
+    <row r="367" spans="1:22">
       <c r="A367" t="s">
         <v>24</v>
       </c>
@@ -26027,7 +26027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:22">
+    <row r="368" spans="1:22">
       <c r="A368" t="s">
         <v>24</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:22">
+    <row r="369" spans="1:22">
       <c r="A369" t="s">
         <v>24</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:22">
+    <row r="370" spans="1:22">
       <c r="A370" t="s">
         <v>24</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="1:22">
+    <row r="371" spans="1:22">
       <c r="A371" t="s">
         <v>24</v>
       </c>
@@ -26299,7 +26299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:22">
+    <row r="372" spans="1:22">
       <c r="A372" t="s">
         <v>24</v>
       </c>
@@ -26367,7 +26367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:22">
+    <row r="373" spans="1:22">
       <c r="A373" t="s">
         <v>24</v>
       </c>
@@ -26435,7 +26435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:22">
+    <row r="374" spans="1:22">
       <c r="A374" t="s">
         <v>24</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:22">
+    <row r="375" spans="1:22">
       <c r="A375" t="s">
         <v>24</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="1:22">
+    <row r="376" spans="1:22">
       <c r="A376" t="s">
         <v>24</v>
       </c>
@@ -26639,7 +26639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:22">
+    <row r="377" spans="1:22">
       <c r="A377" t="s">
         <v>24</v>
       </c>
@@ -26707,7 +26707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:22">
+    <row r="378" spans="1:22">
       <c r="A378" t="s">
         <v>24</v>
       </c>
@@ -26775,7 +26775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:22">
+    <row r="379" spans="1:22">
       <c r="A379" t="s">
         <v>24</v>
       </c>
@@ -26843,7 +26843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:22">
+    <row r="380" spans="1:22">
       <c r="A380" t="s">
         <v>24</v>
       </c>
@@ -26911,7 +26911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="1:22">
+    <row r="381" spans="1:22">
       <c r="A381" t="s">
         <v>24</v>
       </c>
@@ -26979,7 +26979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:22">
+    <row r="382" spans="1:22">
       <c r="A382" t="s">
         <v>24</v>
       </c>
@@ -27047,7 +27047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:22">
+    <row r="383" spans="1:22">
       <c r="A383" t="s">
         <v>24</v>
       </c>
@@ -27115,7 +27115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:22">
+    <row r="384" spans="1:22">
       <c r="A384" t="s">
         <v>24</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:22">
+    <row r="385" spans="1:22">
       <c r="A385" t="s">
         <v>24</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:22">
+    <row r="386" spans="1:22">
       <c r="A386" t="s">
         <v>24</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:22">
+    <row r="387" spans="1:22">
       <c r="A387" t="s">
         <v>24</v>
       </c>
@@ -27387,7 +27387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:22">
+    <row r="388" spans="1:22">
       <c r="A388" t="s">
         <v>24</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:22">
+    <row r="389" spans="1:22">
       <c r="A389" t="s">
         <v>24</v>
       </c>
@@ -27523,7 +27523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:22">
+    <row r="390" spans="1:22">
       <c r="A390" t="s">
         <v>24</v>
       </c>
@@ -27591,7 +27591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="1:22">
+    <row r="391" spans="1:22">
       <c r="A391" t="s">
         <v>24</v>
       </c>
@@ -27659,7 +27659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:22">
+    <row r="392" spans="1:22">
       <c r="A392" t="s">
         <v>24</v>
       </c>
@@ -27727,7 +27727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:22">
+    <row r="393" spans="1:22">
       <c r="A393" t="s">
         <v>24</v>
       </c>
@@ -27795,7 +27795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:22">
+    <row r="394" spans="1:22">
       <c r="A394" t="s">
         <v>24</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:22">
+    <row r="395" spans="1:22">
       <c r="A395" t="s">
         <v>24</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:22">
+    <row r="396" spans="1:22">
       <c r="A396" t="s">
         <v>24</v>
       </c>
@@ -27999,7 +27999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:22">
+    <row r="397" spans="1:22">
       <c r="A397" t="s">
         <v>24</v>
       </c>
@@ -28067,7 +28067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:22">
+    <row r="398" spans="1:22">
       <c r="A398" t="s">
         <v>24</v>
       </c>
@@ -28135,7 +28135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:22">
+    <row r="399" spans="1:22">
       <c r="A399" t="s">
         <v>24</v>
       </c>
@@ -28203,7 +28203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:22">
+    <row r="400" spans="1:22">
       <c r="A400" t="s">
         <v>24</v>
       </c>
@@ -28271,7 +28271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="1:22">
+    <row r="401" spans="1:22">
       <c r="A401" t="s">
         <v>24</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:22">
+    <row r="402" spans="1:22">
       <c r="A402" t="s">
         <v>24</v>
       </c>
@@ -28407,7 +28407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:22">
+    <row r="403" spans="1:22">
       <c r="A403" t="s">
         <v>24</v>
       </c>
@@ -28475,7 +28475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:22">
+    <row r="404" spans="1:22">
       <c r="A404" t="s">
         <v>24</v>
       </c>
@@ -28543,7 +28543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:22">
+    <row r="405" spans="1:22">
       <c r="A405" t="s">
         <v>24</v>
       </c>
@@ -28611,7 +28611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:22">
+    <row r="406" spans="1:22">
       <c r="A406" t="s">
         <v>24</v>
       </c>
@@ -28679,7 +28679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:22">
+    <row r="407" spans="1:22">
       <c r="A407" t="s">
         <v>24</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:22">
+    <row r="408" spans="1:22">
       <c r="A408" t="s">
         <v>24</v>
       </c>
@@ -28815,7 +28815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:22">
+    <row r="409" spans="1:22">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:22">
+    <row r="410" spans="1:22">
       <c r="A410" t="s">
         <v>24</v>
       </c>
@@ -28951,7 +28951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" hidden="1" spans="1:22">
+    <row r="411" spans="1:22">
       <c r="A411" t="s">
         <v>24</v>
       </c>
@@ -29019,7 +29019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:22">
+    <row r="412" spans="1:22">
       <c r="A412" t="s">
         <v>24</v>
       </c>
@@ -29087,7 +29087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:22">
+    <row r="413" spans="1:22">
       <c r="A413" t="s">
         <v>24</v>
       </c>
@@ -29155,7 +29155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:22">
+    <row r="414" spans="1:22">
       <c r="A414" t="s">
         <v>24</v>
       </c>
@@ -29223,7 +29223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:22">
+    <row r="415" spans="1:22">
       <c r="A415" t="s">
         <v>24</v>
       </c>
@@ -29291,7 +29291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:22">
+    <row r="416" spans="1:22">
       <c r="A416" t="s">
         <v>24</v>
       </c>
@@ -29359,7 +29359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="1:22">
+    <row r="417" spans="1:22">
       <c r="A417" t="s">
         <v>24</v>
       </c>
@@ -29427,7 +29427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="1:22">
+    <row r="418" spans="1:22">
       <c r="A418" t="s">
         <v>24</v>
       </c>
@@ -29495,7 +29495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" hidden="1" spans="1:22">
+    <row r="419" spans="1:22">
       <c r="A419" t="s">
         <v>24</v>
       </c>
@@ -29563,7 +29563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="1:22">
+    <row r="420" spans="1:22">
       <c r="A420" t="s">
         <v>24</v>
       </c>
@@ -29631,7 +29631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="1:22">
+    <row r="421" spans="1:22">
       <c r="A421" t="s">
         <v>24</v>
       </c>
@@ -29699,7 +29699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:22">
+    <row r="422" spans="1:22">
       <c r="A422" t="s">
         <v>24</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="1:22">
+    <row r="423" spans="1:22">
       <c r="A423" t="s">
         <v>24</v>
       </c>
@@ -29835,7 +29835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:22">
+    <row r="424" spans="1:22">
       <c r="A424" t="s">
         <v>24</v>
       </c>
@@ -29903,7 +29903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:22">
+    <row r="425" spans="1:22">
       <c r="A425" t="s">
         <v>24</v>
       </c>
@@ -29971,7 +29971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:22">
+    <row r="426" spans="1:22">
       <c r="A426" t="s">
         <v>24</v>
       </c>
@@ -30039,7 +30039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:22">
+    <row r="427" spans="1:22">
       <c r="A427" t="s">
         <v>24</v>
       </c>
@@ -30107,7 +30107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:22">
+    <row r="428" spans="1:22">
       <c r="A428" t="s">
         <v>24</v>
       </c>
@@ -30175,7 +30175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:22">
+    <row r="429" spans="1:22">
       <c r="A429" t="s">
         <v>24</v>
       </c>
@@ -30243,7 +30243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:22">
+    <row r="430" spans="1:22">
       <c r="A430" t="s">
         <v>24</v>
       </c>
@@ -30311,7 +30311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:22">
+    <row r="431" spans="1:22">
       <c r="A431" t="s">
         <v>24</v>
       </c>
@@ -30379,7 +30379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:22">
+    <row r="432" spans="1:22">
       <c r="A432" t="s">
         <v>24</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:22">
+    <row r="433" spans="1:22">
       <c r="A433" t="s">
         <v>24</v>
       </c>
@@ -30515,7 +30515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="1:22">
+    <row r="434" spans="1:22">
       <c r="A434" t="s">
         <v>24</v>
       </c>
@@ -30583,7 +30583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:22">
+    <row r="435" spans="1:22">
       <c r="A435" t="s">
         <v>24</v>
       </c>
@@ -30651,7 +30651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:22">
+    <row r="436" spans="1:22">
       <c r="A436" t="s">
         <v>24</v>
       </c>
@@ -30719,7 +30719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:22">
+    <row r="437" spans="1:22">
       <c r="A437" t="s">
         <v>24</v>
       </c>
@@ -30787,7 +30787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" hidden="1" spans="1:22">
+    <row r="438" spans="1:22">
       <c r="A438" t="s">
         <v>24</v>
       </c>
@@ -30855,7 +30855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:22">
+    <row r="439" spans="1:22">
       <c r="A439" t="s">
         <v>24</v>
       </c>
@@ -30923,7 +30923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:22">
+    <row r="440" spans="1:22">
       <c r="A440" t="s">
         <v>24</v>
       </c>
@@ -30991,7 +30991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:22">
+    <row r="441" spans="1:22">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -31059,7 +31059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:22">
+    <row r="442" spans="1:22">
       <c r="A442" t="s">
         <v>24</v>
       </c>
@@ -31127,7 +31127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:22">
+    <row r="443" spans="1:22">
       <c r="A443" t="s">
         <v>24</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:22">
+    <row r="444" spans="1:22">
       <c r="A444" t="s">
         <v>24</v>
       </c>
@@ -31263,7 +31263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:22">
+    <row r="445" spans="1:22">
       <c r="A445" t="s">
         <v>24</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="1:22">
+    <row r="446" spans="1:22">
       <c r="A446" t="s">
         <v>24</v>
       </c>
@@ -31399,7 +31399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="1:22">
+    <row r="447" spans="1:22">
       <c r="A447" t="s">
         <v>24</v>
       </c>
@@ -31467,7 +31467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448" hidden="1" spans="1:22">
+    <row r="448" spans="1:22">
       <c r="A448" t="s">
         <v>24</v>
       </c>
@@ -31535,7 +31535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="1:22">
+    <row r="449" spans="1:22">
       <c r="A449" t="s">
         <v>24</v>
       </c>
@@ -31603,7 +31603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450" hidden="1" spans="1:22">
+    <row r="450" spans="1:22">
       <c r="A450" t="s">
         <v>24</v>
       </c>
@@ -31671,7 +31671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="1:22">
+    <row r="451" spans="1:22">
       <c r="A451" t="s">
         <v>24</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="1:22">
+    <row r="452" spans="1:22">
       <c r="A452" t="s">
         <v>24</v>
       </c>
@@ -31807,7 +31807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:22">
+    <row r="453" spans="1:22">
       <c r="A453" t="s">
         <v>24</v>
       </c>
@@ -31875,7 +31875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="1:22">
+    <row r="454" spans="1:22">
       <c r="A454" t="s">
         <v>24</v>
       </c>
@@ -31943,7 +31943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="1:22">
+    <row r="455" spans="1:22">
       <c r="A455" t="s">
         <v>24</v>
       </c>
@@ -32011,7 +32011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="1:22">
+    <row r="456" spans="1:22">
       <c r="A456" t="s">
         <v>24</v>
       </c>
@@ -32079,7 +32079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="1:22">
+    <row r="457" spans="1:22">
       <c r="A457" t="s">
         <v>24</v>
       </c>
@@ -32147,7 +32147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:22">
+    <row r="458" spans="1:22">
       <c r="A458" t="s">
         <v>24</v>
       </c>
@@ -32215,7 +32215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:22">
+    <row r="459" spans="1:22">
       <c r="A459" t="s">
         <v>24</v>
       </c>
@@ -32283,7 +32283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" hidden="1" spans="1:22">
+    <row r="460" spans="1:22">
       <c r="A460" t="s">
         <v>24</v>
       </c>
@@ -32351,7 +32351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" hidden="1" spans="1:22">
+    <row r="461" spans="1:22">
       <c r="A461" t="s">
         <v>24</v>
       </c>
@@ -32419,7 +32419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:22">
+    <row r="462" spans="1:22">
       <c r="A462" t="s">
         <v>24</v>
       </c>
@@ -32487,7 +32487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:22">
+    <row r="463" spans="1:22">
       <c r="A463" t="s">
         <v>24</v>
       </c>
@@ -32555,7 +32555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:22">
+    <row r="464" spans="1:22">
       <c r="A464" t="s">
         <v>24</v>
       </c>
@@ -32623,7 +32623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:22">
+    <row r="465" spans="1:22">
       <c r="A465" t="s">
         <v>24</v>
       </c>
@@ -32691,7 +32691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" hidden="1" spans="1:22">
+    <row r="466" spans="1:22">
       <c r="A466" t="s">
         <v>24</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:22">
+    <row r="467" spans="1:22">
       <c r="A467" t="s">
         <v>24</v>
       </c>
@@ -32827,7 +32827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:22">
+    <row r="468" spans="1:22">
       <c r="A468" t="s">
         <v>24</v>
       </c>
@@ -32895,7 +32895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="1:22">
+    <row r="469" spans="1:22">
       <c r="A469" t="s">
         <v>24</v>
       </c>
@@ -32963,7 +32963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:22">
+    <row r="470" spans="1:22">
       <c r="A470" t="s">
         <v>24</v>
       </c>
@@ -33031,7 +33031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:22">
+    <row r="471" spans="1:22">
       <c r="A471" t="s">
         <v>24</v>
       </c>
@@ -33099,7 +33099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="1:22">
+    <row r="472" spans="1:22">
       <c r="A472" t="s">
         <v>24</v>
       </c>
@@ -33167,7 +33167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="1:22">
+    <row r="473" spans="1:22">
       <c r="A473" t="s">
         <v>24</v>
       </c>
@@ -33235,7 +33235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:22">
+    <row r="474" spans="1:22">
       <c r="A474" t="s">
         <v>24</v>
       </c>
@@ -33303,7 +33303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="1:22">
+    <row r="475" spans="1:22">
       <c r="A475" t="s">
         <v>24</v>
       </c>
@@ -33371,7 +33371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:22">
+    <row r="476" spans="1:22">
       <c r="A476" t="s">
         <v>24</v>
       </c>
@@ -33439,7 +33439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="1:22">
+    <row r="477" spans="1:22">
       <c r="A477" t="s">
         <v>24</v>
       </c>
@@ -33507,7 +33507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="1:22">
+    <row r="478" spans="1:22">
       <c r="A478" t="s">
         <v>24</v>
       </c>
@@ -33575,7 +33575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:22">
+    <row r="479" spans="1:22">
       <c r="A479" t="s">
         <v>24</v>
       </c>
@@ -33643,7 +33643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:22">
+    <row r="480" spans="1:22">
       <c r="A480" t="s">
         <v>24</v>
       </c>
@@ -33711,7 +33711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:22">
+    <row r="481" spans="1:22">
       <c r="A481" t="s">
         <v>24</v>
       </c>
@@ -33779,7 +33779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="1:22">
+    <row r="482" spans="1:22">
       <c r="A482" t="s">
         <v>24</v>
       </c>
@@ -33847,7 +33847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:22">
+    <row r="483" spans="1:22">
       <c r="A483" t="s">
         <v>24</v>
       </c>
@@ -33915,7 +33915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="1:22">
+    <row r="484" spans="1:22">
       <c r="A484" t="s">
         <v>24</v>
       </c>
@@ -33983,7 +33983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:22">
+    <row r="485" spans="1:22">
       <c r="A485" t="s">
         <v>24</v>
       </c>
@@ -34051,7 +34051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:22">
+    <row r="486" spans="1:22">
       <c r="A486" t="s">
         <v>24</v>
       </c>
@@ -34119,7 +34119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" hidden="1" spans="1:22">
+    <row r="487" spans="1:22">
       <c r="A487" t="s">
         <v>24</v>
       </c>
@@ -34187,7 +34187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:22">
+    <row r="488" spans="1:22">
       <c r="A488" t="s">
         <v>24</v>
       </c>
@@ -34255,7 +34255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="1:22">
+    <row r="489" spans="1:22">
       <c r="A489" t="s">
         <v>24</v>
       </c>
@@ -34323,7 +34323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:22">
+    <row r="490" spans="1:22">
       <c r="A490" t="s">
         <v>24</v>
       </c>
@@ -34391,7 +34391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:22">
+    <row r="491" spans="1:22">
       <c r="A491" t="s">
         <v>24</v>
       </c>
@@ -34459,7 +34459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="1:22">
+    <row r="492" spans="1:22">
       <c r="A492" t="s">
         <v>24</v>
       </c>
@@ -34527,7 +34527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="1:22">
+    <row r="493" spans="1:22">
       <c r="A493" t="s">
         <v>24</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="1:22">
+    <row r="494" spans="1:22">
       <c r="A494" t="s">
         <v>24</v>
       </c>
@@ -34663,7 +34663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="1:22">
+    <row r="495" spans="1:22">
       <c r="A495" t="s">
         <v>24</v>
       </c>
@@ -34731,7 +34731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="1:22">
+    <row r="496" spans="1:22">
       <c r="A496" t="s">
         <v>24</v>
       </c>
@@ -34799,7 +34799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:22">
+    <row r="497" spans="1:22">
       <c r="A497" t="s">
         <v>24</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="1:22">
+    <row r="498" spans="1:22">
       <c r="A498" t="s">
         <v>24</v>
       </c>
@@ -34935,7 +34935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:22">
+    <row r="499" spans="1:22">
       <c r="A499" t="s">
         <v>24</v>
       </c>
@@ -35003,7 +35003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:22">
+    <row r="500" spans="1:22">
       <c r="A500" t="s">
         <v>24</v>
       </c>
@@ -35071,7 +35071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="1:22">
+    <row r="501" spans="1:22">
       <c r="A501" t="s">
         <v>24</v>
       </c>
@@ -35139,7 +35139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:22">
+    <row r="502" spans="1:22">
       <c r="A502" t="s">
         <v>24</v>
       </c>
@@ -35207,7 +35207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="1:22">
+    <row r="503" spans="1:22">
       <c r="A503" t="s">
         <v>24</v>
       </c>
@@ -35275,7 +35275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="1:22">
+    <row r="504" spans="1:22">
       <c r="A504" t="s">
         <v>24</v>
       </c>
@@ -35343,7 +35343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:22">
+    <row r="505" spans="1:22">
       <c r="A505" t="s">
         <v>24</v>
       </c>
@@ -35411,7 +35411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:22">
+    <row r="506" spans="1:22">
       <c r="A506" t="s">
         <v>24</v>
       </c>
@@ -35479,7 +35479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:22">
+    <row r="507" spans="1:22">
       <c r="A507" t="s">
         <v>24</v>
       </c>
@@ -35547,7 +35547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:22">
+    <row r="508" spans="1:22">
       <c r="A508" t="s">
         <v>24</v>
       </c>
@@ -35615,7 +35615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:22">
+    <row r="509" spans="1:22">
       <c r="A509" t="s">
         <v>24</v>
       </c>
@@ -35683,7 +35683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="1:22">
+    <row r="510" spans="1:22">
       <c r="A510" t="s">
         <v>24</v>
       </c>
@@ -35751,7 +35751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:22">
+    <row r="511" spans="1:22">
       <c r="A511" t="s">
         <v>24</v>
       </c>
@@ -35819,7 +35819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="1:22">
+    <row r="512" spans="1:22">
       <c r="A512" t="s">
         <v>24</v>
       </c>
@@ -35887,7 +35887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:22">
+    <row r="513" spans="1:22">
       <c r="A513" t="s">
         <v>24</v>
       </c>
@@ -35955,7 +35955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="1:22">
+    <row r="514" spans="1:22">
       <c r="A514" t="s">
         <v>24</v>
       </c>
@@ -36023,7 +36023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" hidden="1" spans="1:22">
+    <row r="515" spans="1:22">
       <c r="A515" t="s">
         <v>24</v>
       </c>
@@ -36091,7 +36091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" hidden="1" spans="1:22">
+    <row r="516" spans="1:22">
       <c r="A516" t="s">
         <v>24</v>
       </c>
@@ -36159,7 +36159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:22">
+    <row r="517" spans="1:22">
       <c r="A517" t="s">
         <v>24</v>
       </c>
@@ -36227,7 +36227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:22">
+    <row r="518" spans="1:22">
       <c r="A518" t="s">
         <v>24</v>
       </c>
@@ -36295,7 +36295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:22">
+    <row r="519" spans="1:22">
       <c r="A519" t="s">
         <v>24</v>
       </c>
@@ -36363,7 +36363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:22">
+    <row r="520" spans="1:22">
       <c r="A520" t="s">
         <v>24</v>
       </c>
@@ -36431,7 +36431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:22">
+    <row r="521" spans="1:22">
       <c r="A521" t="s">
         <v>24</v>
       </c>
@@ -36499,7 +36499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" hidden="1" spans="1:22">
+    <row r="522" spans="1:22">
       <c r="A522" t="s">
         <v>24</v>
       </c>
@@ -36567,7 +36567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="1:22">
+    <row r="523" spans="1:22">
       <c r="A523" t="s">
         <v>24</v>
       </c>
@@ -36635,7 +36635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:22">
+    <row r="524" spans="1:22">
       <c r="A524" t="s">
         <v>24</v>
       </c>
@@ -36703,7 +36703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:22">
+    <row r="525" spans="1:22">
       <c r="A525" t="s">
         <v>24</v>
       </c>
@@ -36771,7 +36771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:22">
+    <row r="526" spans="1:22">
       <c r="A526" t="s">
         <v>24</v>
       </c>
@@ -36839,7 +36839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="1:22">
+    <row r="527" spans="1:22">
       <c r="A527" t="s">
         <v>24</v>
       </c>
@@ -36907,7 +36907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:22">
+    <row r="528" spans="1:22">
       <c r="A528" t="s">
         <v>24</v>
       </c>
@@ -36975,7 +36975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="1:22">
+    <row r="529" spans="1:22">
       <c r="A529" t="s">
         <v>24</v>
       </c>
@@ -37043,7 +37043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="1:22">
+    <row r="530" spans="1:22">
       <c r="A530" t="s">
         <v>24</v>
       </c>
@@ -37111,7 +37111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:22">
+    <row r="531" spans="1:22">
       <c r="A531" t="s">
         <v>24</v>
       </c>
@@ -37179,7 +37179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:22">
+    <row r="532" spans="1:22">
       <c r="A532" t="s">
         <v>24</v>
       </c>
@@ -37247,7 +37247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:22">
+    <row r="533" spans="1:22">
       <c r="A533" t="s">
         <v>24</v>
       </c>
@@ -37315,7 +37315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="1:22">
+    <row r="534" spans="1:22">
       <c r="A534" t="s">
         <v>24</v>
       </c>
@@ -37383,7 +37383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" hidden="1" spans="1:22">
+    <row r="535" spans="1:22">
       <c r="A535" t="s">
         <v>24</v>
       </c>
@@ -37451,7 +37451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:22">
+    <row r="536" spans="1:22">
       <c r="A536" t="s">
         <v>24</v>
       </c>
@@ -37519,7 +37519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:22">
+    <row r="537" spans="1:22">
       <c r="A537" t="s">
         <v>24</v>
       </c>
@@ -37587,7 +37587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:22">
+    <row r="538" spans="1:22">
       <c r="A538" t="s">
         <v>24</v>
       </c>
@@ -37655,7 +37655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="1:22">
+    <row r="539" spans="1:22">
       <c r="A539" t="s">
         <v>24</v>
       </c>
@@ -37723,7 +37723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:22">
+    <row r="540" spans="1:22">
       <c r="A540" t="s">
         <v>24</v>
       </c>
@@ -37791,7 +37791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="1:22">
+    <row r="541" spans="1:22">
       <c r="A541" t="s">
         <v>24</v>
       </c>
@@ -37859,7 +37859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="1:22">
+    <row r="542" spans="1:22">
       <c r="A542" t="s">
         <v>24</v>
       </c>
@@ -37927,7 +37927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="1:22">
+    <row r="543" spans="1:22">
       <c r="A543" t="s">
         <v>24</v>
       </c>
@@ -37995,7 +37995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="1:22">
+    <row r="544" spans="1:22">
       <c r="A544" t="s">
         <v>24</v>
       </c>
@@ -38063,7 +38063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:22">
+    <row r="545" spans="1:22">
       <c r="A545" t="s">
         <v>24</v>
       </c>
@@ -38131,7 +38131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:22">
+    <row r="546" spans="1:22">
       <c r="A546" t="s">
         <v>24</v>
       </c>
@@ -38199,7 +38199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="1:22">
+    <row r="547" spans="1:22">
       <c r="A547" t="s">
         <v>24</v>
       </c>
@@ -38267,7 +38267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:22">
+    <row r="548" spans="1:22">
       <c r="A548" t="s">
         <v>24</v>
       </c>
@@ -38335,7 +38335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="1:22">
+    <row r="549" spans="1:22">
       <c r="A549" t="s">
         <v>24</v>
       </c>
@@ -38403,7 +38403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" hidden="1" spans="1:22">
+    <row r="550" spans="1:22">
       <c r="A550" t="s">
         <v>24</v>
       </c>
@@ -38471,7 +38471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" hidden="1" spans="1:22">
+    <row r="551" spans="1:22">
       <c r="A551" t="s">
         <v>24</v>
       </c>
@@ -38539,7 +38539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" hidden="1" spans="1:22">
+    <row r="552" spans="1:22">
       <c r="A552" t="s">
         <v>24</v>
       </c>
@@ -38607,7 +38607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" hidden="1" spans="1:22">
+    <row r="553" spans="1:22">
       <c r="A553" t="s">
         <v>24</v>
       </c>
@@ -38675,7 +38675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" hidden="1" spans="1:22">
+    <row r="554" spans="1:22">
       <c r="A554" t="s">
         <v>24</v>
       </c>
@@ -38743,7 +38743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="1:22">
+    <row r="555" spans="1:22">
       <c r="A555" t="s">
         <v>24</v>
       </c>
@@ -38811,7 +38811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" hidden="1" spans="1:22">
+    <row r="556" spans="1:22">
       <c r="A556" t="s">
         <v>24</v>
       </c>
@@ -38879,7 +38879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:22">
+    <row r="557" spans="1:22">
       <c r="A557" t="s">
         <v>24</v>
       </c>
@@ -38947,7 +38947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" hidden="1" spans="1:22">
+    <row r="558" spans="1:22">
       <c r="A558" t="s">
         <v>24</v>
       </c>
@@ -39015,7 +39015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="1:22">
+    <row r="559" spans="1:22">
       <c r="A559" t="s">
         <v>24</v>
       </c>
@@ -39083,7 +39083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="1:22">
+    <row r="560" spans="1:22">
       <c r="A560" t="s">
         <v>24</v>
       </c>
@@ -39151,7 +39151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="1:22">
+    <row r="561" spans="1:22">
       <c r="A561" t="s">
         <v>24</v>
       </c>
@@ -39219,7 +39219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" hidden="1" spans="1:22">
+    <row r="562" spans="1:22">
       <c r="A562" t="s">
         <v>24</v>
       </c>
@@ -39287,7 +39287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" hidden="1" spans="1:22">
+    <row r="563" spans="1:22">
       <c r="A563" t="s">
         <v>24</v>
       </c>
@@ -39355,7 +39355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" hidden="1" spans="1:22">
+    <row r="564" spans="1:22">
       <c r="A564" t="s">
         <v>24</v>
       </c>
@@ -39423,7 +39423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="1:22">
+    <row r="565" spans="1:22">
       <c r="A565" t="s">
         <v>24</v>
       </c>
@@ -39491,7 +39491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" hidden="1" spans="1:22">
+    <row r="566" spans="1:22">
       <c r="A566" t="s">
         <v>24</v>
       </c>
@@ -39559,7 +39559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" hidden="1" spans="1:22">
+    <row r="567" spans="1:22">
       <c r="A567" t="s">
         <v>24</v>
       </c>
@@ -39627,7 +39627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" hidden="1" spans="1:22">
+    <row r="568" spans="1:22">
       <c r="A568" t="s">
         <v>24</v>
       </c>
@@ -39695,7 +39695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="569" hidden="1" spans="1:22">
+    <row r="569" spans="1:22">
       <c r="A569" t="s">
         <v>24</v>
       </c>
@@ -39763,7 +39763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="1:22">
+    <row r="570" spans="1:22">
       <c r="A570" t="s">
         <v>24</v>
       </c>
@@ -39831,7 +39831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="1:22">
+    <row r="571" spans="1:22">
       <c r="A571" t="s">
         <v>24</v>
       </c>
@@ -39899,7 +39899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="1:22">
+    <row r="572" spans="1:22">
       <c r="A572" t="s">
         <v>24</v>
       </c>
@@ -39967,7 +39967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" hidden="1" spans="1:22">
+    <row r="573" spans="1:22">
       <c r="A573" t="s">
         <v>24</v>
       </c>
@@ -40035,7 +40035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="1:22">
+    <row r="574" spans="1:22">
       <c r="A574" t="s">
         <v>24</v>
       </c>
@@ -40103,7 +40103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" hidden="1" spans="1:22">
+    <row r="575" spans="1:22">
       <c r="A575" t="s">
         <v>24</v>
       </c>
@@ -40171,7 +40171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="1:22">
+    <row r="576" spans="1:22">
       <c r="A576" t="s">
         <v>24</v>
       </c>
@@ -40239,7 +40239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="1:22">
+    <row r="577" spans="1:22">
       <c r="A577" t="s">
         <v>24</v>
       </c>
@@ -40307,7 +40307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" hidden="1" spans="1:22">
+    <row r="578" spans="1:22">
       <c r="A578" t="s">
         <v>24</v>
       </c>
@@ -40375,7 +40375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" hidden="1" spans="1:22">
+    <row r="579" spans="1:22">
       <c r="A579" t="s">
         <v>24</v>
       </c>
@@ -40443,7 +40443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" hidden="1" spans="1:22">
+    <row r="580" spans="1:22">
       <c r="A580" t="s">
         <v>24</v>
       </c>
@@ -40511,7 +40511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="1:22">
+    <row r="581" spans="1:22">
       <c r="A581" t="s">
         <v>24</v>
       </c>
@@ -40579,7 +40579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="1:22">
+    <row r="582" spans="1:22">
       <c r="A582" t="s">
         <v>24</v>
       </c>
@@ -40647,7 +40647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" hidden="1" spans="1:22">
+    <row r="583" spans="1:22">
       <c r="A583" t="s">
         <v>24</v>
       </c>
@@ -40715,7 +40715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="584" hidden="1" spans="1:22">
+    <row r="584" spans="1:22">
       <c r="A584" t="s">
         <v>24</v>
       </c>
@@ -40783,7 +40783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" hidden="1" spans="1:22">
+    <row r="585" spans="1:22">
       <c r="A585" t="s">
         <v>24</v>
       </c>
@@ -40851,7 +40851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="586" hidden="1" spans="1:22">
+    <row r="586" spans="1:22">
       <c r="A586" t="s">
         <v>24</v>
       </c>
@@ -40919,7 +40919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="587" hidden="1" spans="1:22">
+    <row r="587" spans="1:22">
       <c r="A587" t="s">
         <v>24</v>
       </c>
@@ -40987,7 +40987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" hidden="1" spans="1:22">
+    <row r="588" spans="1:22">
       <c r="A588" t="s">
         <v>24</v>
       </c>
@@ -41055,7 +41055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" hidden="1" spans="1:22">
+    <row r="589" spans="1:22">
       <c r="A589" t="s">
         <v>24</v>
       </c>
@@ -41123,7 +41123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="1:22">
+    <row r="590" spans="1:22">
       <c r="A590" t="s">
         <v>24</v>
       </c>
@@ -41191,7 +41191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" hidden="1" spans="1:22">
+    <row r="591" spans="1:22">
       <c r="A591" t="s">
         <v>24</v>
       </c>
@@ -41259,7 +41259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" hidden="1" spans="1:22">
+    <row r="592" spans="1:22">
       <c r="A592" t="s">
         <v>24</v>
       </c>
@@ -41327,7 +41327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="1:22">
+    <row r="593" spans="1:22">
       <c r="A593" t="s">
         <v>24</v>
       </c>
@@ -41395,7 +41395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" hidden="1" spans="1:22">
+    <row r="594" spans="1:22">
       <c r="A594" t="s">
         <v>24</v>
       </c>
@@ -41463,7 +41463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="595" hidden="1" spans="1:22">
+    <row r="595" spans="1:22">
       <c r="A595" t="s">
         <v>24</v>
       </c>
@@ -41531,7 +41531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="596" hidden="1" spans="1:22">
+    <row r="596" spans="1:22">
       <c r="A596" t="s">
         <v>24</v>
       </c>
@@ -41599,7 +41599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="597" hidden="1" spans="1:22">
+    <row r="597" spans="1:22">
       <c r="A597" t="s">
         <v>24</v>
       </c>
@@ -41667,7 +41667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="598" hidden="1" spans="1:22">
+    <row r="598" spans="1:22">
       <c r="A598" t="s">
         <v>24</v>
       </c>
@@ -41735,7 +41735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" hidden="1" spans="1:22">
+    <row r="599" spans="1:22">
       <c r="A599" t="s">
         <v>24</v>
       </c>
@@ -41803,7 +41803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:22">
+    <row r="600" spans="1:22">
       <c r="A600" t="s">
         <v>24</v>
       </c>
@@ -41871,7 +41871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="1:22">
+    <row r="601" spans="1:22">
       <c r="A601" t="s">
         <v>24</v>
       </c>
@@ -41939,7 +41939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" hidden="1" spans="1:22">
+    <row r="602" spans="1:22">
       <c r="A602" t="s">
         <v>24</v>
       </c>
@@ -42007,7 +42007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" hidden="1" spans="1:22">
+    <row r="603" spans="1:22">
       <c r="A603" t="s">
         <v>24</v>
       </c>
@@ -42075,7 +42075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="1:22">
+    <row r="604" spans="1:22">
       <c r="A604" t="s">
         <v>24</v>
       </c>
@@ -42143,7 +42143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" hidden="1" spans="1:22">
+    <row r="605" spans="1:22">
       <c r="A605" t="s">
         <v>24</v>
       </c>
@@ -42211,7 +42211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" hidden="1" spans="1:22">
+    <row r="606" spans="1:22">
       <c r="A606" t="s">
         <v>24</v>
       </c>
@@ -42279,7 +42279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="1:22">
+    <row r="607" spans="1:22">
       <c r="A607" t="s">
         <v>24</v>
       </c>
@@ -42347,7 +42347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="608" hidden="1" spans="1:22">
+    <row r="608" spans="1:22">
       <c r="A608" t="s">
         <v>24</v>
       </c>
@@ -42415,7 +42415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" hidden="1" spans="1:22">
+    <row r="609" spans="1:22">
       <c r="A609" t="s">
         <v>24</v>
       </c>
@@ -42483,7 +42483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" hidden="1" spans="1:22">
+    <row r="610" spans="1:22">
       <c r="A610" t="s">
         <v>24</v>
       </c>
@@ -42551,7 +42551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" hidden="1" spans="1:22">
+    <row r="611" spans="1:22">
       <c r="A611" t="s">
         <v>24</v>
       </c>
@@ -42619,7 +42619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="1:22">
+    <row r="612" spans="1:22">
       <c r="A612" t="s">
         <v>24</v>
       </c>
@@ -42687,7 +42687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" hidden="1" spans="1:22">
+    <row r="613" spans="1:22">
       <c r="A613" t="s">
         <v>24</v>
       </c>
@@ -42755,7 +42755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" hidden="1" spans="1:22">
+    <row r="614" spans="1:22">
       <c r="A614" t="s">
         <v>24</v>
       </c>
@@ -42823,7 +42823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="615" hidden="1" spans="1:22">
+    <row r="615" spans="1:22">
       <c r="A615" t="s">
         <v>24</v>
       </c>
@@ -42891,7 +42891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="616" hidden="1" spans="1:22">
+    <row r="616" spans="1:22">
       <c r="A616" t="s">
         <v>24</v>
       </c>
@@ -42959,7 +42959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="617" hidden="1" spans="1:22">
+    <row r="617" spans="1:22">
       <c r="A617" t="s">
         <v>24</v>
       </c>
@@ -43027,7 +43027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="1:22">
+    <row r="618" spans="1:22">
       <c r="A618" t="s">
         <v>24</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="619" hidden="1" spans="1:22">
+    <row r="619" spans="1:22">
       <c r="A619" t="s">
         <v>24</v>
       </c>
@@ -43163,7 +43163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="620" hidden="1" spans="1:22">
+    <row r="620" spans="1:22">
       <c r="A620" t="s">
         <v>24</v>
       </c>
@@ -43231,7 +43231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="621" hidden="1" spans="1:22">
+    <row r="621" spans="1:22">
       <c r="A621" t="s">
         <v>24</v>
       </c>
@@ -43299,7 +43299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="622" hidden="1" spans="1:22">
+    <row r="622" spans="1:22">
       <c r="A622" t="s">
         <v>24</v>
       </c>
@@ -43367,7 +43367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="1:22">
+    <row r="623" spans="1:22">
       <c r="A623" t="s">
         <v>24</v>
       </c>
@@ -43435,7 +43435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="624" hidden="1" spans="1:22">
+    <row r="624" spans="1:22">
       <c r="A624" t="s">
         <v>24</v>
       </c>
@@ -43503,7 +43503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="625" hidden="1" spans="1:22">
+    <row r="625" spans="1:22">
       <c r="A625" t="s">
         <v>24</v>
       </c>
@@ -43571,7 +43571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" hidden="1" spans="1:22">
+    <row r="626" spans="1:22">
       <c r="A626" t="s">
         <v>24</v>
       </c>
@@ -43639,7 +43639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="1:22">
+    <row r="627" spans="1:22">
       <c r="A627" t="s">
         <v>24</v>
       </c>
@@ -43707,7 +43707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" hidden="1" spans="1:22">
+    <row r="628" spans="1:22">
       <c r="A628" t="s">
         <v>24</v>
       </c>
@@ -43775,7 +43775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" hidden="1" spans="1:22">
+    <row r="629" spans="1:22">
       <c r="A629" t="s">
         <v>24</v>
       </c>
@@ -43843,7 +43843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" hidden="1" spans="1:22">
+    <row r="630" spans="1:22">
       <c r="A630" t="s">
         <v>24</v>
       </c>
@@ -43911,7 +43911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="1:22">
+    <row r="631" spans="1:22">
       <c r="A631" t="s">
         <v>24</v>
       </c>
@@ -43979,7 +43979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" hidden="1" spans="1:22">
+    <row r="632" spans="1:22">
       <c r="A632" t="s">
         <v>24</v>
       </c>
@@ -44047,7 +44047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="633" hidden="1" spans="1:22">
+    <row r="633" spans="1:22">
       <c r="A633" t="s">
         <v>24</v>
       </c>
@@ -44115,7 +44115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="1:22">
+    <row r="634" spans="1:22">
       <c r="A634" t="s">
         <v>24</v>
       </c>
@@ -44183,7 +44183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" hidden="1" spans="1:22">
+    <row r="635" spans="1:22">
       <c r="A635" t="s">
         <v>24</v>
       </c>
@@ -44251,7 +44251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="1:22">
+    <row r="636" spans="1:22">
       <c r="A636" t="s">
         <v>24</v>
       </c>
@@ -44319,7 +44319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="1:22">
+    <row r="637" spans="1:22">
       <c r="A637" t="s">
         <v>24</v>
       </c>
@@ -103161,7 +103161,7 @@
   <autoFilter ref="A1:V1501">
     <filterColumn colId="0">
       <filters>
-        <filter val="case16"/>
+        <filter val="case15"/>
       </filters>
     </filterColumn>
     <extLst/>
